--- a/biology/Zoologie/Clara_(rhinocéros)/Clara_(rhinocéros).xlsx
+++ b/biology/Zoologie/Clara_(rhinocéros)/Clara_(rhinocéros).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clara_(rhinoc%C3%A9ros)</t>
+          <t>Clara_(rhinocéros)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clara, née vers 1738 dans l'Assam et morte le 14 avril 1758 à Londres, est un rhinocéros indien femelle. C'est le cinquième rhinocéros à parvenir vivant dans l'Europe moderne, et le premier à gagner une célébrité internationale comparable à celle du Rhinocéros de Dürer (1515).
 Au cours de sa tournée en Europe, Clara a été représentée par différents artistes, dont Jean-Baptiste Oudry, Pietro Longhi, Johann Joachim Kändler ou Johann Elias Ridinger. Étudiée par Buffon, elle a servi de modèle pour les gravures de son Histoire naturelle, d'après le tableau d'Oudry. Cette image de Clara est réutilisée dans l'Encyclopédie de Diderot et D'Alembert.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clara_(rhinoc%C3%A9ros)</t>
+          <t>Clara_(rhinocéros)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1738, âgée de quelques mois, Clara, dont la mère a sans doute été tuée par des chasseurs indiens, est capturée dans l'Assam et adoptée par Jan Albert Sichterman (nl), directeur au Bengale de la Compagnie néerlandaise des Indes orientales (VOC)[1]. Il l'appelle Clara. Elle est parfaitement apprivoisée et circule librement dans la demeure de son maître. En 1740, Sichterman la donne, ou la vend, au capitaine Douwe Mout van der Meer, commandant du Knappenhof qui retourne en Hollande[2]. Clara débarque à Rotterdam le 22 juillet 1741 et, comme l'avaient été les rhinocéros anglais de 1684 et 1739, est immédiatement exposée au public. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1738, âgée de quelques mois, Clara, dont la mère a sans doute été tuée par des chasseurs indiens, est capturée dans l'Assam et adoptée par Jan Albert Sichterman (nl), directeur au Bengale de la Compagnie néerlandaise des Indes orientales (VOC). Il l'appelle Clara. Elle est parfaitement apprivoisée et circule librement dans la demeure de son maître. En 1740, Sichterman la donne, ou la vend, au capitaine Douwe Mout van der Meer, commandant du Knappenhof qui retourne en Hollande. Clara débarque à Rotterdam le 22 juillet 1741 et, comme l'avaient été les rhinocéros anglais de 1684 et 1739, est immédiatement exposée au public. 
 Le succès de ces expositions incite Douwe Mout van der Meer à quitter la VOC en 1744 et à entreprendre une tournée européenne avec son rhinocéros. On lui construit un véhicule spécial adapté aux longues étapes terrestres, et la tournée rencontre un succès prodigieux. Clara est exposée à Bruxelles en 1743, puis à Hambourg en 1744. 
 La tournée débute véritablement au printemps 1746 : Hanovre, puis Berlin, au Spittelmarkt. Le 26 avril, le roi Frédéric II de Prusse vient la voir. Puis c'est Francfort-sur-l'Oder, Breslau (Wrocław), enfin Vienne, où elle fait une entrée triomphale,  escortée de huit gardes empanachés. Le 5 novembre, l'empereur François Ier et l'impératrice Marie-Thérèse viennent la voir. En 1747, elle passe à Munich, Ratisbonne, Freiberg, le 5 avril à Dresde, où elle pose pour Johann Joachim Kändler, de la Manufacture de porcelaine de Meissen, et où elle reçoit le 19 avril la visite d'Auguste III, électeur de Saxe et roi de Pologne. Le 23, elle est à Leipzig pour la foire de Pâques, dans une baraque de la Petersthor. En juillet elle est hébergée à l'orangerie du château de Cassel, invitée par le landgrave Frédéric II de Hesse-Cassel. En novembre, elle est à Mannheim, à l'auberge du Paon (Gasthof zum Pfau), où elle reçoit la visite du comte palatin Charles-Théodore de Bavière et de sa famille. En décembre, elle est à Strasbourg pour la foire de Noël. En 1748, elle passe à Berne, Zurich, Bâle, Schaffhouse, Stuttgart, Augsbourg, Nuremberg et Wurtzbourg.
 En 1748, Douwe Mout van der Meer propose au public, outre le spectacle payant (avec plusieurs classes), toute une gamme de produits dérivés : des gravures de différents formats, des médailles souvenirs fabriquées à Nuremberg en argent ou en bronze, (voire (au début de la tournée du moins) des fioles d'urine de Clara censées avoir des vertus curatives)[réf. nécessaire]. 
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clara_(rhinoc%C3%A9ros)</t>
+          <t>Clara_(rhinocéros)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1991, le musée d'histoire naturelle de Rotterdam consacre une exposition à Clara. En 2008, le même musée inaugure le Mémorial de Clara à l'occasion de 250e anniversaire de la mort du rhinocéros[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1991, le musée d'histoire naturelle de Rotterdam consacre une exposition à Clara. En 2008, le même musée inaugure le Mémorial de Clara à l'occasion de 250e anniversaire de la mort du rhinocéros.
 </t>
         </is>
       </c>
